--- a/testData/销售管理/放货申请/放货申请_审批.xlsx
+++ b/testData/销售管理/放货申请/放货申请_审批.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zidonghua\自动化UI306\testData\销售管理\放货申请\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zidonghua\自动化UI340\testData\销售管理\放货申请\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FDACBC-CB0C-4759-8739-40CF9C0F4967}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6458ECFD-8761-4961-98F9-21BA4653F77D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="719" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="296">
   <si>
     <t>流程描述</t>
   </si>
@@ -173,9 +173,6 @@
     <t>脚本数据（自动生成），无需维护</t>
   </si>
   <si>
-    <t>FH201906000027</t>
-  </si>
-  <si>
     <t>liukai</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>后续审批*10</t>
   </si>
   <si>
-    <t>admin_kf</t>
-  </si>
-  <si>
     <t>D:\zidonghua\自动化审批\processpictures\2019-4-10\19-46-52.620507</t>
   </si>
   <si>
@@ -888,13 +882,47 @@
   </si>
   <si>
     <t>D:\zidonghua\自动化UI306\processpictures\2019-6-24\12-53-15.074577\12-56-02.198357.png</t>
+  </si>
+  <si>
+    <t>后续审批*15</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>点击返回首页</t>
+  </si>
+  <si>
+    <t>//a[@title="返回首页"]</t>
+  </si>
+  <si>
+    <t>FH201907000205</t>
+  </si>
+  <si>
+    <t>FH201907000213</t>
+  </si>
+  <si>
+    <t>FH201907000214</t>
+  </si>
+  <si>
+    <t>FH201907000208</t>
+  </si>
+  <si>
+    <t>FH201907000209</t>
+  </si>
+  <si>
+    <t>FH201907000210</t>
+  </si>
+  <si>
+    <t>FH201907000216</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,12 +1027,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF3030"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1157,7 +1179,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1392,18 +1414,15 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,16 +1439,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1735,16 +1754,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="87" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="87" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="87" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="86" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="86" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="86" customWidth="1"/>
     <col min="4" max="4" width="28.08203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="87" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="87" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="87" customWidth="1"/>
-    <col min="8" max="8" width="10.4140625" style="87" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="87" customWidth="1"/>
-    <col min="10" max="10" width="12" style="87" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="86" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="86" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" style="86" customWidth="1"/>
+    <col min="8" max="8" width="10.4140625" style="86" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="86" customWidth="1"/>
+    <col min="10" max="10" width="12" style="86" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1780,19 +1799,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="87" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="46" t="s">
@@ -1801,28 +1820,28 @@
       <c r="G2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="J2" s="90" t="s">
-        <v>102</v>
+      <c r="I2" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="J2" s="89" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="87" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="87" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="28" t="s">
@@ -1831,18 +1850,18 @@
       <c r="G3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="J3" s="90" t="s">
-        <v>102</v>
+      <c r="I3" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="95" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="48" t="s">
@@ -1854,7 +1873,7 @@
       <c r="D4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="47" t="s">
@@ -1863,18 +1882,18 @@
       <c r="G4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="J4" s="90" t="s">
-        <v>102</v>
+      <c r="I4" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="J4" s="89" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="95"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="48" t="s">
         <v>25</v>
       </c>
@@ -1884,7 +1903,7 @@
       <c r="D5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="87" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="47" t="s">
@@ -1893,18 +1912,18 @@
       <c r="G5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="88" t="s">
-        <v>279</v>
-      </c>
-      <c r="J5" s="90" t="s">
-        <v>102</v>
+      <c r="I5" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="J5" s="89" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="36.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="48" t="s">
         <v>29</v>
       </c>
@@ -1914,7 +1933,7 @@
       <c r="D6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="87" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="47" t="s">
@@ -1923,14 +1942,14 @@
       <c r="G6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="J6" s="90" t="s">
-        <v>102</v>
+      <c r="I6" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="J6" s="89" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1942,7 +1961,7 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"关键字,数据"</formula1>
@@ -1970,7 +1989,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1981,12 +2000,12 @@
     <col min="4" max="4" width="19" style="8" customWidth="1"/>
     <col min="5" max="5" width="9.58203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="10.4140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.9140625" style="84" customWidth="1"/>
-    <col min="8" max="10" width="15.1640625" style="84" customWidth="1"/>
-    <col min="11" max="11" width="15.08203125" style="84" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="84" customWidth="1"/>
+    <col min="7" max="7" width="16.9140625" style="83" customWidth="1"/>
+    <col min="8" max="10" width="15.1640625" style="83" customWidth="1"/>
+    <col min="11" max="11" width="15.08203125" style="83" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="83" customWidth="1"/>
     <col min="13" max="13" width="11.83203125" style="73" customWidth="1"/>
-    <col min="14" max="14" width="15.58203125" style="84" customWidth="1"/>
+    <col min="14" max="14" width="15.58203125" style="83" customWidth="1"/>
     <col min="15" max="15" width="20" style="72" customWidth="1"/>
     <col min="16" max="223" width="8.6640625" style="21" customWidth="1"/>
     <col min="224" max="16384" width="8.6640625" style="21"/>
@@ -2039,7 +2058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="89" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="88" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
         <v>44</v>
       </c>
@@ -2054,15 +2073,15 @@
       <c r="H2" s="63"/>
       <c r="I2" s="60"/>
       <c r="J2" s="60"/>
-      <c r="K2" s="94" t="s">
+      <c r="K2" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="97" t="s">
+      <c r="L2" s="97"/>
+      <c r="M2" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="64"/>
@@ -2073,38 +2092,36 @@
         <v>45</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="E3" s="93" t="s">
-        <v>102</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="E3" s="92"/>
       <c r="F3" s="65"/>
       <c r="G3" s="80" t="s">
-        <v>48</v>
+        <v>289</v>
       </c>
       <c r="H3" s="20">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="I3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="N3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="20" t="s">
-        <v>54</v>
-      </c>
       <c r="O3" s="67" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2116,32 +2133,34 @@
         <v>45</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="83"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="65"/>
-      <c r="G4" s="81"/>
+      <c r="G4" s="81" t="s">
+        <v>290</v>
+      </c>
       <c r="H4" s="20">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="I4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="67" t="s">
         <v>55</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="67" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2153,32 +2172,34 @@
         <v>45</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="83"/>
+      <c r="E5" s="82"/>
       <c r="F5" s="65"/>
-      <c r="G5" s="82"/>
+      <c r="G5" s="81" t="s">
+        <v>291</v>
+      </c>
       <c r="H5" s="20">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="J5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="L5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="18" t="s">
-        <v>52</v>
-      </c>
       <c r="M5" s="66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O5" s="67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -2190,32 +2211,34 @@
         <v>45</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="83"/>
+      <c r="E6" s="82"/>
       <c r="F6" s="65"/>
-      <c r="G6" s="82"/>
+      <c r="G6" s="81" t="s">
+        <v>292</v>
+      </c>
       <c r="H6" s="20">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="J6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="18" t="s">
-        <v>52</v>
-      </c>
       <c r="M6" s="69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N6" s="74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O6" s="67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2227,75 +2250,79 @@
         <v>45</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="83"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="71"/>
-      <c r="G7" s="82"/>
+      <c r="G7" s="81" t="s">
+        <v>293</v>
+      </c>
       <c r="H7" s="20">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="J7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="L7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>52</v>
-      </c>
       <c r="M7" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O7" s="67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="83"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="65"/>
-      <c r="G8" s="82"/>
+      <c r="G8" s="81" t="s">
+        <v>294</v>
+      </c>
       <c r="H8" s="20">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="J8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="L8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>52</v>
-      </c>
       <c r="M8" s="69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N8" s="74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O8" s="67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>45</v>
@@ -2303,36 +2330,38 @@
       <c r="D9" s="10"/>
       <c r="E9" s="78"/>
       <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
+      <c r="G9" s="81" t="s">
+        <v>295</v>
+      </c>
       <c r="H9" s="20">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="J9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="L9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>52</v>
-      </c>
       <c r="M9" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="67" t="s">
         <v>68</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="O9" s="67" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="70"/>
       <c r="B10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>45</v>
@@ -2342,34 +2371,34 @@
       <c r="F10" s="65"/>
       <c r="G10" s="65"/>
       <c r="H10" s="20">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="I10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="67" t="s">
         <v>72</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="N10" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="O10" s="67" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="68"/>
       <c r="B11" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>45</v>
@@ -2382,31 +2411,31 @@
         <v>520</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="L11" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="44" t="s">
-        <v>52</v>
-      </c>
       <c r="M11" s="66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O11" s="67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>45</v>
@@ -2419,31 +2448,31 @@
         <v>520</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="44" t="s">
+      <c r="L12" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="44" t="s">
-        <v>52</v>
-      </c>
       <c r="M12" s="69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N12" s="74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O12" s="67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="68"/>
       <c r="B13" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>45</v>
@@ -2456,31 +2485,31 @@
         <v>520</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="44" t="s">
+      <c r="L13" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="44" t="s">
-        <v>52</v>
-      </c>
       <c r="M13" s="69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N13" s="74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O13" s="67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="68"/>
       <c r="B14" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>45</v>
@@ -2493,31 +2522,31 @@
         <v>520</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="44" t="s">
+      <c r="L14" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="44" t="s">
-        <v>52</v>
-      </c>
       <c r="M14" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O14" s="67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="70"/>
       <c r="B15" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>45</v>
@@ -2527,19 +2556,19 @@
       <c r="F15" s="65"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="I15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="K15" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="L15" s="44" t="s">
         <v>51</v>
-      </c>
-      <c r="L15" s="44" t="s">
-        <v>52</v>
       </c>
       <c r="M15" s="69"/>
       <c r="N15" s="74"/>
@@ -2548,7 +2577,7 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="68"/>
       <c r="B16" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>45</v>
@@ -2558,19 +2587,19 @@
       <c r="F16" s="71"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="I16" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="K16" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="L16" s="44" t="s">
         <v>51</v>
-      </c>
-      <c r="L16" s="44" t="s">
-        <v>52</v>
       </c>
       <c r="M16" s="66"/>
       <c r="N16" s="20"/>
@@ -2579,7 +2608,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
       <c r="B17" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>45</v>
@@ -2589,36 +2618,36 @@
       <c r="F17" s="65"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="I17" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="K17" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="44" t="s">
+      <c r="L17" s="44" t="s">
         <v>51</v>
-      </c>
-      <c r="L17" s="44" t="s">
-        <v>52</v>
       </c>
       <c r="M17" s="69"/>
       <c r="N17" s="74"/>
       <c r="O17" s="67"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J18" s="85"/>
+      <c r="J18" s="84"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J19" s="85"/>
+      <c r="J19" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="K2:L2"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"未使用,已使用"</formula1>
@@ -2645,16 +2674,16 @@
   <cols>
     <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.08203125" style="87" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="87" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="87" customWidth="1"/>
-    <col min="6" max="6" width="19.58203125" style="87" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="87" customWidth="1"/>
-    <col min="8" max="8" width="19" style="87" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="87" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="87" customWidth="1"/>
-    <col min="11" max="11" width="16.25" style="87" customWidth="1"/>
-    <col min="12" max="12" width="21.08203125" style="87" customWidth="1"/>
+    <col min="3" max="3" width="16.08203125" style="86" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="86" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="86" customWidth="1"/>
+    <col min="6" max="6" width="19.58203125" style="86" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="86" customWidth="1"/>
+    <col min="8" max="8" width="19" style="86" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="86" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="86" customWidth="1"/>
+    <col min="11" max="11" width="16.25" style="86" customWidth="1"/>
+    <col min="12" max="12" width="21.08203125" style="86" customWidth="1"/>
     <col min="13" max="177" width="8.6640625" style="21" customWidth="1"/>
     <col min="178" max="16384" width="8.6640625" style="21"/>
   </cols>
@@ -2664,22 +2693,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>8</v>
@@ -2688,13 +2717,13 @@
         <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2702,79 +2731,79 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88" t="s">
-        <v>236</v>
-      </c>
-      <c r="I2" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88" t="s">
-        <v>238</v>
-      </c>
-      <c r="I4" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"是,否"</formula1>
@@ -2800,16 +2829,16 @@
   <cols>
     <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.08203125" style="87" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="87" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="87" customWidth="1"/>
-    <col min="6" max="6" width="19.58203125" style="87" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="87" customWidth="1"/>
-    <col min="8" max="8" width="19" style="87" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="87" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="87" customWidth="1"/>
-    <col min="11" max="11" width="16.25" style="87" customWidth="1"/>
-    <col min="12" max="12" width="21.08203125" style="87" customWidth="1"/>
+    <col min="3" max="3" width="16.08203125" style="86" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="86" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="86" customWidth="1"/>
+    <col min="6" max="6" width="19.58203125" style="86" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="86" customWidth="1"/>
+    <col min="8" max="8" width="19" style="86" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="86" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="86" customWidth="1"/>
+    <col min="11" max="11" width="16.25" style="86" customWidth="1"/>
+    <col min="12" max="12" width="21.08203125" style="86" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -2817,22 +2846,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>8</v>
@@ -2841,13 +2870,13 @@
         <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2855,199 +2884,199 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="E2" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="F2" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="I2" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="I3" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="86">
+        <v>114</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="85">
         <v>0.5</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="I4" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="I5" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87" t="s">
+        <v>238</v>
+      </c>
+      <c r="I5" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88" t="s">
-        <v>241</v>
-      </c>
-      <c r="I6" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
+        <v>120</v>
+      </c>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
     </row>
     <row r="7" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="I7" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
+      <c r="D7" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
     </row>
     <row r="8" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="I8" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88" t="s">
+      <c r="G8" s="87"/>
+      <c r="H8" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="I8" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="88" t="s">
-        <v>243</v>
+      <c r="L8" s="87" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"是,否"</formula1>
@@ -3065,24 +3094,24 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.83203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="19.4140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.08203125" style="87" customWidth="1"/>
-    <col min="4" max="4" width="13.4140625" style="87" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="87" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" style="87" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="87" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="87" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="87" customWidth="1"/>
-    <col min="10" max="10" width="16.58203125" style="87" customWidth="1"/>
-    <col min="11" max="11" width="16.25" style="87" customWidth="1"/>
-    <col min="12" max="12" width="21.08203125" style="87" customWidth="1"/>
+    <col min="3" max="3" width="16.08203125" style="86" customWidth="1"/>
+    <col min="4" max="4" width="13.4140625" style="86" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="86" customWidth="1"/>
+    <col min="6" max="6" width="9.58203125" style="86" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="86" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="86" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="86" customWidth="1"/>
+    <col min="10" max="10" width="16.58203125" style="86" customWidth="1"/>
+    <col min="11" max="11" width="16.25" style="86" customWidth="1"/>
+    <col min="12" max="12" width="21.08203125" style="86" customWidth="1"/>
     <col min="13" max="181" width="8.6640625" style="21" customWidth="1"/>
     <col min="182" max="16384" width="8.6640625" style="21"/>
   </cols>
@@ -3092,22 +3121,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>8</v>
@@ -3116,13 +3145,13 @@
         <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3130,23 +3159,23 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="I2" s="90" t="s">
-        <v>102</v>
+        <v>126</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J2" s="36"/>
-      <c r="K2" s="88"/>
+      <c r="K2" s="87"/>
       <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3154,25 +3183,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="90" t="s">
-        <v>102</v>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="I3" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J3" s="36"/>
-      <c r="K3" s="88"/>
+      <c r="K3" s="87"/>
       <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3180,23 +3209,23 @@
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D4" s="75"/>
       <c r="E4" s="75"/>
       <c r="F4" s="75"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88" t="s">
-        <v>244</v>
-      </c>
-      <c r="I4" s="90" t="s">
-        <v>102</v>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J4" s="36"/>
-      <c r="K4" s="88"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="37"/>
     </row>
     <row r="5" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3204,27 +3233,27 @@
         <v>25</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F5" s="75"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88" t="s">
-        <v>245</v>
-      </c>
-      <c r="I5" s="90" t="s">
-        <v>102</v>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="I5" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J5" s="36"/>
-      <c r="K5" s="88"/>
+      <c r="K5" s="87"/>
       <c r="L5" s="37"/>
     </row>
     <row r="6" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3232,501 +3261,501 @@
         <v>29</v>
       </c>
       <c r="B6" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88" t="s">
-        <v>245</v>
-      </c>
-      <c r="I6" s="90" t="s">
-        <v>102</v>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J6" s="36"/>
-      <c r="K6" s="88"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="37"/>
     </row>
     <row r="7" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="F7" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="90" t="s">
-        <v>102</v>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J7" s="36"/>
-      <c r="K7" s="88"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="37"/>
     </row>
     <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="E8" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>145</v>
-      </c>
       <c r="F8" s="75"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88" t="s">
-        <v>246</v>
-      </c>
-      <c r="I8" s="90" t="s">
-        <v>102</v>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J8" s="36"/>
-      <c r="K8" s="88"/>
+      <c r="K8" s="87"/>
       <c r="L8" s="37"/>
     </row>
     <row r="9" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D9" s="75"/>
       <c r="E9" s="75"/>
       <c r="F9" s="75"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88" t="s">
-        <v>246</v>
-      </c>
-      <c r="I9" s="90" t="s">
-        <v>102</v>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J9" s="36"/>
-      <c r="K9" s="88"/>
+      <c r="K9" s="87"/>
       <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F10" s="75"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88" t="s">
-        <v>246</v>
-      </c>
-      <c r="I10" s="90" t="s">
-        <v>102</v>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J10" s="36"/>
-      <c r="K10" s="88"/>
+      <c r="K10" s="87"/>
       <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>150</v>
-      </c>
       <c r="F11" s="75"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="I11" s="90" t="s">
-        <v>102</v>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J11" s="36"/>
-      <c r="K11" s="88"/>
+      <c r="K11" s="87"/>
       <c r="L11" s="37"/>
     </row>
     <row r="12" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="I12" s="90" t="s">
-        <v>102</v>
+      <c r="C12" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="I12" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J12" s="36"/>
-      <c r="K12" s="88"/>
+      <c r="K12" s="87"/>
       <c r="L12" s="37"/>
     </row>
     <row r="13" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="86"/>
+        <v>150</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="87"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="I13" s="90" t="s">
-        <v>102</v>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="I13" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J13" s="36"/>
-      <c r="K13" s="88"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="37"/>
     </row>
     <row r="14" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88" t="s">
-        <v>249</v>
-      </c>
-      <c r="I14" s="90" t="s">
-        <v>102</v>
+        <v>119</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="87"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87" t="s">
+        <v>247</v>
+      </c>
+      <c r="I14" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J14" s="36"/>
-      <c r="K14" s="88"/>
+      <c r="K14" s="87"/>
       <c r="L14" s="37"/>
     </row>
     <row r="15" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88" t="s">
-        <v>250</v>
-      </c>
-      <c r="I15" s="90" t="s">
-        <v>102</v>
+        <v>152</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="I15" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J15" s="36"/>
-      <c r="K15" s="88"/>
+      <c r="K15" s="87"/>
       <c r="L15" s="37"/>
     </row>
     <row r="16" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88" t="s">
-        <v>251</v>
-      </c>
-      <c r="I16" s="90" t="s">
-        <v>102</v>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="I16" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J16" s="36"/>
-      <c r="K16" s="88"/>
+      <c r="K16" s="87"/>
       <c r="L16" s="37"/>
     </row>
     <row r="17" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88" t="s">
-        <v>251</v>
-      </c>
-      <c r="I17" s="90" t="s">
-        <v>102</v>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="I17" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J17" s="36"/>
-      <c r="K17" s="88"/>
+      <c r="K17" s="87"/>
       <c r="L17" s="37"/>
     </row>
     <row r="18" spans="1:12" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="86" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="88" t="s">
-        <v>252</v>
-      </c>
-      <c r="I18" s="90" t="s">
-        <v>102</v>
+      <c r="H18" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="I18" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J18" s="36"/>
-      <c r="K18" s="86" t="s">
+      <c r="K18" s="85" t="s">
         <v>16</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="D19" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="F19" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="88" t="s">
-        <v>252</v>
-      </c>
-      <c r="I19" s="90" t="s">
-        <v>102</v>
+      <c r="H19" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="I19" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J19" s="36"/>
-      <c r="K19" s="86"/>
+      <c r="K19" s="85"/>
       <c r="L19" s="37"/>
     </row>
     <row r="20" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88" t="s">
-        <v>254</v>
-      </c>
-      <c r="I20" s="90" t="s">
-        <v>102</v>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87" t="s">
+        <v>252</v>
+      </c>
+      <c r="I20" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J20" s="36"/>
-      <c r="K20" s="88"/>
+      <c r="K20" s="87"/>
       <c r="L20" s="37"/>
     </row>
     <row r="21" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
+        <v>150</v>
+      </c>
+      <c r="C21" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88" t="s">
-        <v>254</v>
-      </c>
-      <c r="I21" s="90" t="s">
-        <v>102</v>
+        <v>173</v>
+      </c>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87" t="s">
+        <v>252</v>
+      </c>
+      <c r="I21" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J21" s="36"/>
-      <c r="K21" s="88"/>
+      <c r="K21" s="87"/>
       <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="I22" s="90" t="s">
-        <v>102</v>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="I22" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J22" s="36"/>
-      <c r="K22" s="88"/>
+      <c r="K22" s="87"/>
       <c r="L22" s="37"/>
     </row>
     <row r="23" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D23" s="75"/>
       <c r="E23" s="75"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="I23" s="90" t="s">
-        <v>102</v>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="I23" s="89" t="s">
+        <v>100</v>
       </c>
       <c r="J23" s="36"/>
-      <c r="K23" s="88"/>
+      <c r="K23" s="87"/>
       <c r="L23" s="37"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3735,10 +3764,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3764,22 +3793,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>95</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>8</v>
@@ -3788,13 +3817,13 @@
         <v>9</v>
       </c>
       <c r="J1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>96</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="31" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.3">
@@ -3802,104 +3831,102 @@
         <v>11</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="86" t="s">
-        <v>182</v>
+        <v>179</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>180</v>
       </c>
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
       <c r="F2" s="75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="I2" s="91" t="s">
-        <v>102</v>
+        <v>254</v>
+      </c>
+      <c r="I2" s="90" t="s">
+        <v>100</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="1:12" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="31" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>121</v>
+      <c r="B3" s="29" t="s">
+        <v>287</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>110</v>
+        <v>117</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="E3" s="75" t="s">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="I3" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-    </row>
-    <row r="4" spans="1:12" ht="47.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="32"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+    </row>
+    <row r="4" spans="1:12" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>185</v>
+      <c r="B4" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>110</v>
+        <v>121</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>108</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" s="75"/>
       <c r="H4" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="I4" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="38"/>
+        <v>254</v>
+      </c>
+      <c r="I4" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="75"/>
       <c r="K4" s="75"/>
-      <c r="L4" s="39"/>
-    </row>
-    <row r="5" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="75"/>
+    </row>
+    <row r="5" spans="1:12" ht="47.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75">
-        <v>1</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="75"/>
       <c r="G5" s="75"/>
       <c r="H5" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="I5" s="92" t="s">
-        <v>102</v>
+        <v>254</v>
+      </c>
+      <c r="I5" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="75"/>
@@ -3910,24 +3937,22 @@
         <v>29</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="75"/>
+        <v>151</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75">
+        <v>1</v>
+      </c>
       <c r="G6" s="75"/>
       <c r="H6" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="I6" s="92" t="s">
-        <v>102</v>
+        <v>255</v>
+      </c>
+      <c r="I6" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J6" s="38"/>
       <c r="K6" s="75"/>
@@ -3935,109 +3960,113 @@
     </row>
     <row r="7" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" s="75" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F7" s="75"/>
       <c r="G7" s="75"/>
       <c r="H7" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="I7" s="92" t="s">
-        <v>102</v>
+        <v>256</v>
+      </c>
+      <c r="I7" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="75"/>
       <c r="L7" s="39"/>
     </row>
-    <row r="8" spans="1:12" ht="52" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>137</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F8" s="75"/>
       <c r="G8" s="75"/>
       <c r="H8" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="I8" s="92" t="s">
-        <v>102</v>
+        <v>256</v>
+      </c>
+      <c r="I8" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="75"/>
       <c r="L8" s="39"/>
     </row>
-    <row r="9" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="52" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="75"/>
+        <v>190</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>135</v>
+      </c>
       <c r="G9" s="75"/>
       <c r="H9" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="I9" s="92" t="s">
-        <v>102</v>
+        <v>256</v>
+      </c>
+      <c r="I9" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J9" s="38"/>
       <c r="K9" s="75"/>
       <c r="L9" s="39"/>
     </row>
-    <row r="10" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
+        <v>117</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>192</v>
+      </c>
       <c r="F10" s="75"/>
       <c r="G10" s="75"/>
       <c r="H10" s="75" t="s">
-        <v>259</v>
-      </c>
-      <c r="I10" s="92" t="s">
-        <v>102</v>
+        <v>256</v>
+      </c>
+      <c r="I10" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J10" s="38"/>
       <c r="K10" s="75"/>
@@ -4045,27 +4074,25 @@
     </row>
     <row r="11" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="75"/>
+        <v>120</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75">
+        <v>50</v>
+      </c>
       <c r="G11" s="75"/>
       <c r="H11" s="75" t="s">
-        <v>259</v>
-      </c>
-      <c r="I11" s="92" t="s">
-        <v>102</v>
+        <v>257</v>
+      </c>
+      <c r="I11" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="75"/>
@@ -4073,23 +4100,27 @@
     </row>
     <row r="12" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
+        <v>117</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>186</v>
+      </c>
       <c r="F12" s="75"/>
       <c r="G12" s="75"/>
       <c r="H12" s="75" t="s">
-        <v>260</v>
-      </c>
-      <c r="I12" s="92" t="s">
-        <v>102</v>
+        <v>257</v>
+      </c>
+      <c r="I12" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="75"/>
@@ -4097,27 +4128,23 @@
     </row>
     <row r="13" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>158</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
       <c r="H13" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="I13" s="92" t="s">
-        <v>102</v>
+        <v>258</v>
+      </c>
+      <c r="I13" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J13" s="38"/>
       <c r="K13" s="75"/>
@@ -4125,27 +4152,27 @@
     </row>
     <row r="14" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>123</v>
+        <v>154</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>155</v>
       </c>
       <c r="D14" s="75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="F14" s="75"/>
       <c r="G14" s="75"/>
       <c r="H14" s="75" t="s">
-        <v>262</v>
-      </c>
-      <c r="I14" s="92" t="s">
-        <v>102</v>
+        <v>259</v>
+      </c>
+      <c r="I14" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J14" s="38"/>
       <c r="K14" s="75"/>
@@ -4153,27 +4180,27 @@
     </row>
     <row r="15" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>110</v>
+        <v>178</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F15" s="75"/>
       <c r="G15" s="75"/>
       <c r="H15" s="75" t="s">
-        <v>262</v>
-      </c>
-      <c r="I15" s="92" t="s">
-        <v>102</v>
+        <v>260</v>
+      </c>
+      <c r="I15" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="75"/>
@@ -4181,27 +4208,27 @@
     </row>
     <row r="16" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>201</v>
+        <v>196</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>197</v>
       </c>
       <c r="F16" s="75"/>
       <c r="G16" s="75"/>
       <c r="H16" s="75" t="s">
-        <v>263</v>
-      </c>
-      <c r="I16" s="92" t="s">
-        <v>102</v>
+        <v>260</v>
+      </c>
+      <c r="I16" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="75"/>
@@ -4209,29 +4236,27 @@
     </row>
     <row r="17" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>205</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>206</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="75"/>
       <c r="G17" s="75"/>
       <c r="H17" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="I17" s="92" t="s">
-        <v>102</v>
+        <v>261</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J17" s="38"/>
       <c r="K17" s="75"/>
@@ -4239,29 +4264,29 @@
     </row>
     <row r="18" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C18" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="75" t="s">
         <v>204</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>210</v>
       </c>
       <c r="G18" s="75"/>
       <c r="H18" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="I18" s="92" t="s">
-        <v>102</v>
+        <v>262</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J18" s="38"/>
       <c r="K18" s="75"/>
@@ -4269,29 +4294,29 @@
     </row>
     <row r="19" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>110</v>
+        <v>202</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>108</v>
       </c>
       <c r="E19" s="75" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F19" s="75" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G19" s="75"/>
       <c r="H19" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="I19" s="92" t="s">
-        <v>102</v>
+        <v>263</v>
+      </c>
+      <c r="I19" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J19" s="38"/>
       <c r="K19" s="75"/>
@@ -4299,27 +4324,29 @@
     </row>
     <row r="20" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="75"/>
+        <v>212</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>213</v>
+      </c>
       <c r="G20" s="75"/>
       <c r="H20" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="I20" s="92" t="s">
-        <v>102</v>
+        <v>263</v>
+      </c>
+      <c r="I20" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J20" s="38"/>
       <c r="K20" s="75"/>
@@ -4327,107 +4354,107 @@
     </row>
     <row r="21" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75">
-        <v>80</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="75"/>
       <c r="G21" s="75"/>
       <c r="H21" s="75" t="s">
-        <v>267</v>
-      </c>
-      <c r="I21" s="92" t="s">
-        <v>102</v>
+        <v>264</v>
+      </c>
+      <c r="I21" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J21" s="38"/>
       <c r="K21" s="75"/>
       <c r="L21" s="39"/>
     </row>
-    <row r="22" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="F22" s="75"/>
+        <v>174</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75">
+        <v>80</v>
+      </c>
       <c r="G22" s="75"/>
       <c r="H22" s="75" t="s">
-        <v>268</v>
-      </c>
-      <c r="I22" s="92" t="s">
-        <v>102</v>
+        <v>265</v>
+      </c>
+      <c r="I22" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J22" s="38"/>
       <c r="K22" s="75"/>
       <c r="L22" s="39"/>
     </row>
-    <row r="23" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75">
-        <v>80</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23" s="75"/>
       <c r="G23" s="75"/>
       <c r="H23" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="I23" s="92" t="s">
-        <v>102</v>
+        <v>266</v>
+      </c>
+      <c r="I23" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J23" s="38"/>
       <c r="K23" s="75"/>
       <c r="L23" s="39"/>
     </row>
-    <row r="24" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>224</v>
+        <v>195</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>178</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="F24" s="75"/>
+        <v>120</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75">
+        <v>80</v>
+      </c>
       <c r="G24" s="75"/>
       <c r="H24" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="I24" s="92" t="s">
-        <v>102</v>
+        <v>267</v>
+      </c>
+      <c r="I24" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J24" s="38"/>
       <c r="K24" s="75"/>
@@ -4435,77 +4462,81 @@
     </row>
     <row r="25" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>227</v>
+        <v>198</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>222</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75" t="s">
-        <v>228</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" s="75"/>
       <c r="G25" s="75"/>
       <c r="H25" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="I25" s="92" t="s">
-        <v>102</v>
+        <v>267</v>
+      </c>
+      <c r="I25" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J25" s="38"/>
-      <c r="K25" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="39" t="s">
-        <v>271</v>
-      </c>
+      <c r="K25" s="75"/>
+      <c r="L25" s="39"/>
     </row>
     <row r="26" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>231</v>
+        <v>124</v>
       </c>
       <c r="D26" s="75"/>
       <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
+      <c r="F26" s="75" t="s">
+        <v>226</v>
+      </c>
       <c r="G26" s="75"/>
       <c r="H26" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="I26" s="92" t="s">
-        <v>102</v>
+        <v>268</v>
+      </c>
+      <c r="I26" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J26" s="38"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="39"/>
+      <c r="K26" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="D27" s="75"/>
       <c r="E27" s="75"/>
       <c r="F27" s="75"/>
       <c r="G27" s="75"/>
       <c r="H27" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="I27" s="92" t="s">
-        <v>102</v>
+        <v>268</v>
+      </c>
+      <c r="I27" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J27" s="38"/>
       <c r="K27" s="75"/>
@@ -4513,27 +4544,23 @@
     </row>
     <row r="28" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>155</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
       <c r="F28" s="75"/>
       <c r="G28" s="75"/>
       <c r="H28" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="I28" s="92" t="s">
-        <v>102</v>
+        <v>270</v>
+      </c>
+      <c r="I28" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J28" s="38"/>
       <c r="K28" s="75"/>
@@ -4541,27 +4568,27 @@
     </row>
     <row r="29" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>157</v>
+        <v>178</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>121</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="75" t="s">
-        <v>158</v>
+        <v>108</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="F29" s="75"/>
       <c r="G29" s="75"/>
       <c r="H29" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="I29" s="92" t="s">
-        <v>102</v>
+        <v>271</v>
+      </c>
+      <c r="I29" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J29" s="38"/>
       <c r="K29" s="75"/>
@@ -4569,109 +4596,111 @@
     </row>
     <row r="30" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="75" t="s">
-        <v>161</v>
-      </c>
+      <c r="D30" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="75"/>
       <c r="G30" s="75"/>
       <c r="H30" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="I30" s="92" t="s">
-        <v>102</v>
+        <v>272</v>
+      </c>
+      <c r="I30" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J30" s="38"/>
       <c r="K30" s="75"/>
       <c r="L30" s="39"/>
     </row>
-    <row r="31" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75">
-        <v>0.5</v>
+        <v>230</v>
+      </c>
+      <c r="C31" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="75" t="s">
+        <v>159</v>
       </c>
       <c r="G31" s="75"/>
       <c r="H31" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="I31" s="92" t="s">
-        <v>102</v>
+        <v>272</v>
+      </c>
+      <c r="I31" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J31" s="38"/>
-      <c r="K31" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="L31" s="39" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="75"/>
+      <c r="L31" s="39"/>
+    </row>
+    <row r="32" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="D32" s="75"/>
       <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
+      <c r="F32" s="75">
+        <v>0.5</v>
+      </c>
       <c r="G32" s="75"/>
       <c r="H32" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="I32" s="92" t="s">
-        <v>102</v>
+        <v>273</v>
+      </c>
+      <c r="I32" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J32" s="38"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="39"/>
+      <c r="K32" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="D33" s="75"/>
       <c r="E33" s="75"/>
-      <c r="F33" s="25" t="s">
-        <v>175</v>
-      </c>
+      <c r="F33" s="75"/>
       <c r="G33" s="75"/>
       <c r="H33" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="I33" s="92" t="s">
-        <v>102</v>
+        <v>273</v>
+      </c>
+      <c r="I33" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J33" s="38"/>
       <c r="K33" s="75"/>
@@ -4679,60 +4708,86 @@
     </row>
     <row r="34" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="75"/>
+        <v>224</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="25" t="s">
+        <v>173</v>
+      </c>
       <c r="G34" s="75"/>
       <c r="H34" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="I34" s="92" t="s">
-        <v>102</v>
+        <v>273</v>
+      </c>
+      <c r="I34" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J34" s="38"/>
       <c r="K34" s="75"/>
       <c r="L34" s="39"/>
     </row>
     <row r="35" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="25"/>
+      <c r="A35" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="75"/>
       <c r="G35" s="75"/>
       <c r="H35" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="I35" s="92" t="s">
-        <v>102</v>
+        <v>276</v>
+      </c>
+      <c r="I35" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J35" s="38"/>
       <c r="K35" s="75"/>
       <c r="L35" s="39"/>
     </row>
+    <row r="36" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="I36" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="J36" s="38"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="39"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4775,22 +4830,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>95</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>8</v>
@@ -4799,13 +4854,13 @@
         <v>9</v>
       </c>
       <c r="J1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>96</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4813,22 +4868,22 @@
         <v>11</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="86" t="s">
-        <v>182</v>
+        <v>179</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>180</v>
       </c>
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
       <c r="F2" s="75" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G2" s="75"/>
       <c r="H2" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="I2" s="92" t="s">
-        <v>102</v>
+        <v>278</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J2" s="75"/>
       <c r="K2" s="75"/>
@@ -4839,20 +4894,20 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
+        <v>126</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="75"/>
       <c r="H3" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="I3" s="92" t="s">
-        <v>102</v>
+        <v>278</v>
+      </c>
+      <c r="I3" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J3" s="75"/>
       <c r="K3" s="75"/>
@@ -4863,22 +4918,22 @@
         <v>22</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="87"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85" t="s">
         <v>130</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86" t="s">
-        <v>132</v>
       </c>
       <c r="G4" s="75"/>
       <c r="H4" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="I4" s="92" t="s">
-        <v>102</v>
+        <v>279</v>
+      </c>
+      <c r="I4" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J4" s="75"/>
       <c r="K4" s="75"/>
@@ -4889,20 +4944,20 @@
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
+        <v>131</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
       <c r="H5" s="75" t="s">
-        <v>282</v>
-      </c>
-      <c r="I5" s="92" t="s">
-        <v>102</v>
+        <v>280</v>
+      </c>
+      <c r="I5" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J5" s="75"/>
       <c r="K5" s="75"/>
@@ -4913,24 +4968,24 @@
         <v>29</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F6" s="75"/>
       <c r="G6" s="75"/>
       <c r="H6" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="I6" s="92" t="s">
-        <v>102</v>
+        <v>281</v>
+      </c>
+      <c r="I6" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="75"/>
@@ -4938,29 +4993,29 @@
     </row>
     <row r="7" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="75" t="s">
         <v>135</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="75" t="s">
-        <v>137</v>
       </c>
       <c r="G7" s="75"/>
       <c r="H7" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="I7" s="92" t="s">
-        <v>102</v>
+        <v>281</v>
+      </c>
+      <c r="I7" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="75"/>
@@ -4968,29 +5023,29 @@
     </row>
     <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="85" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="I8" s="92" t="s">
-        <v>102</v>
+        <v>281</v>
+      </c>
+      <c r="I8" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="75"/>
@@ -4998,27 +5053,27 @@
     </row>
     <row r="9" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="E9" s="75" t="s">
         <v>143</v>
-      </c>
-      <c r="D9" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>145</v>
       </c>
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
       <c r="H9" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="I9" s="92" t="s">
-        <v>102</v>
+        <v>281</v>
+      </c>
+      <c r="I9" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J9" s="38"/>
       <c r="K9" s="75"/>
@@ -5026,23 +5081,23 @@
     </row>
     <row r="10" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10" s="75"/>
       <c r="E10" s="75"/>
       <c r="F10" s="75"/>
       <c r="G10" s="75"/>
       <c r="H10" s="75" t="s">
-        <v>284</v>
-      </c>
-      <c r="I10" s="92" t="s">
-        <v>102</v>
+        <v>282</v>
+      </c>
+      <c r="I10" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J10" s="38"/>
       <c r="K10" s="75"/>
@@ -5050,27 +5105,27 @@
     </row>
     <row r="11" spans="1:12" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
       <c r="H11" s="75" t="s">
-        <v>284</v>
-      </c>
-      <c r="I11" s="92" t="s">
-        <v>102</v>
+        <v>282</v>
+      </c>
+      <c r="I11" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="75"/>
@@ -5078,66 +5133,66 @@
     </row>
     <row r="12" spans="1:12" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="75" t="s">
         <v>148</v>
-      </c>
-      <c r="C12" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>150</v>
       </c>
       <c r="F12" s="75"/>
       <c r="G12" s="75"/>
       <c r="H12" s="75" t="s">
-        <v>285</v>
-      </c>
-      <c r="I12" s="92" t="s">
-        <v>102</v>
+        <v>283</v>
+      </c>
+      <c r="I12" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="75" t="s">
         <v>16</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="88" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="88"/>
+        <v>233</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="87"/>
       <c r="G13" s="75"/>
       <c r="H13" s="75" t="s">
-        <v>285</v>
-      </c>
-      <c r="I13" s="92" t="s">
-        <v>102</v>
+        <v>283</v>
+      </c>
+      <c r="I13" s="91" t="s">
+        <v>100</v>
       </c>
       <c r="J13" s="38"/>
       <c r="K13" s="75"/>
       <c r="L13" s="39"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"是,否"</formula1>
